--- a/biology/Botanique/Mendoncia_phytocrenoides/Mendoncia_phytocrenoides.xlsx
+++ b/biology/Botanique/Mendoncia_phytocrenoides/Mendoncia_phytocrenoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mendoncia phytocrenoides (Gilg ex Lindau) Benoist est une espèce de plantes de la famille des Acanthaceae et du genre Mendoncia, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe ou liane à tronc subhérissé. Ses feuilles sont coriaces et cassantes. Sa corolle blanche est profondément découpée. Les bractéoles sont rouges[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe ou liane à tronc subhérissé. Ses feuilles sont coriaces et cassantes. Sa corolle blanche est profondément découpée. Les bractéoles sont rouges.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, l'espèce a été observée principalement au Gabon (six sites), également au Cameroun (deux sites dans la Région du Centre et un dans la Région de l'Est, à Djouo), ainsi qu'au sud-est du Nigeria (un site[3]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, l'espèce a été observée principalement au Gabon (six sites), également au Cameroun (deux sites dans la Région du Centre et un dans la Région de l'Est, à Djouo), ainsi qu'au sud-est du Nigeria (un site).
 </t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 janvier 2018)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 janvier 2018) :
 variété Mendoncia phytocrenoides var. iodioides
-Selon The Plant List            (9 janvier 2018)[1] :
+Selon The Plant List            (9 janvier 2018) :
 variété Mendoncia phytocrenoides var. ioides Heine
-Selon Tropicos                                           (9 janvier 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Mendoncia phytocrenoides var. ioides Heine
 variété Mendoncia phytocrenoides var. phytocrenoides</t>
         </is>
